--- a/20918-홍영준-202304-A.xlsx
+++ b/20918-홍영준-202304-A.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="제1작업" sheetId="1" r:id="rId1"/>
-    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
-    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제 1작업" sheetId="5" r:id="rId1"/>
+    <sheet name="제2작업" sheetId="7" r:id="rId2"/>
+    <sheet name="제3작업" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="메뉴수">'제 1작업'!$F$5:$F$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,17 +30,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
-  <si>
-    <t>코드번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>업체명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>KA1-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WE2-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KA3-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WE1-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KA2-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한옥마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초이반점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영파스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘된장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사천성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버텍스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장수본가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,6 +153,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>전월배달건수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>최소
 배달비</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +166,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>코드번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>한식 업체 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,115 +178,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>최소 메뉴수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>KA1-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH2-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WE2-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KA3-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH1-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WE1-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KA2-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한옥마을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초이반점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영파스타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘된장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사천성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버텍스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장수본가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서양식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 메뉴슈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KA1-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전월배달건수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성일정보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2학년 9반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일</t>
+  </si>
+  <si>
+    <t>월요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3학년</t>
+  </si>
+  <si>
+    <t>4학년</t>
+  </si>
+  <si>
+    <t>10반</t>
+  </si>
+  <si>
+    <t>11반</t>
+  </si>
+  <si>
+    <t>2학년 10반</t>
+  </si>
+  <si>
+    <t>2학년 11반</t>
+  </si>
+  <si>
+    <t>화요일</t>
+  </si>
+  <si>
+    <t>수요일</t>
+  </si>
+  <si>
+    <t>목요일</t>
+  </si>
+  <si>
+    <t>금요일</t>
+  </si>
+  <si>
+    <t>토요일</t>
+  </si>
+  <si>
+    <t>일요일</t>
+  </si>
+  <si>
+    <t>강서영</t>
+  </si>
+  <si>
+    <t>강서영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최수혁</t>
+  </si>
+  <si>
+    <t>김준원</t>
+  </si>
+  <si>
+    <t>황성대</t>
+  </si>
+  <si>
+    <t>박경민</t>
+  </si>
+  <si>
+    <t>홍영준</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#&quot;개&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,16 +297,30 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -222,42 +328,368 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -271,6 +703,139 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>17860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>148829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="십자형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="148828" y="17860"/>
+          <a:ext cx="5030391" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>미래 배달앱 등록업체 관리 현황</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>671763</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>234496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4963026" y="35717"/>
+          <a:ext cx="2015290" cy="539674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,278 +1101,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-    </row>
-    <row r="4" spans="2:10" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="17">
+        <v>44630</v>
+      </c>
+      <c r="F5" s="24">
+        <v>25</v>
+      </c>
+      <c r="G5" s="18">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="18">
+        <v>295</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44915</v>
+      </c>
+      <c r="F6" s="25">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4">
+        <v>16000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>422</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44844</v>
+      </c>
+      <c r="F7" s="25">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>198</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44701</v>
+      </c>
+      <c r="F8" s="25">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4">
+        <v>9000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>343</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44783</v>
+      </c>
+      <c r="F9" s="25">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4">
+        <v>11000</v>
+      </c>
+      <c r="H9" s="4">
+        <v>385</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8">
+        <v>44885</v>
+      </c>
+      <c r="F10" s="25">
+        <v>22</v>
+      </c>
+      <c r="G10" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H10" s="4">
+        <v>225</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8">
+        <v>44602</v>
+      </c>
+      <c r="F11" s="25">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9900</v>
+      </c>
+      <c r="H11" s="4">
+        <v>398</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>44630</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2">
-        <v>15000</v>
-      </c>
-      <c r="H5" s="2">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7">
-        <v>44185</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>16000</v>
-      </c>
-      <c r="H6" s="2">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E12" s="12">
+        <v>44581</v>
+      </c>
+      <c r="F12" s="26">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5">
+        <v>13000</v>
+      </c>
+      <c r="H12" s="5">
+        <v>415</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="7">
-        <v>44479</v>
-      </c>
-      <c r="F7" s="2">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>15000</v>
-      </c>
-      <c r="H7" s="2">
-        <v>198</v>
-      </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="7">
-        <v>44701</v>
-      </c>
-      <c r="F8" s="2">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2">
-        <v>9000</v>
-      </c>
-      <c r="H8" s="2">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7">
-        <v>44418</v>
-      </c>
-      <c r="F9" s="2">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2">
-        <v>11000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7">
-        <v>44520</v>
-      </c>
-      <c r="F10" s="2">
-        <v>22</v>
-      </c>
-      <c r="G10" s="2">
-        <v>15000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7">
-        <v>44602</v>
-      </c>
-      <c r="F11" s="2">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H11" s="2">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="7">
-        <v>44581</v>
-      </c>
-      <c r="F12" s="2">
-        <v>16</v>
-      </c>
-      <c r="G12" s="2">
-        <v>13000</v>
-      </c>
-      <c r="H12" s="2">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
+      <formula1>$B$5:$B$12</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -815,14 +1413,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -835,16 +1433,256 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/20918-홍영준-202304-A.xlsx
+++ b/20918-홍영준-202304-A.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="제 1작업" sheetId="5" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="제3작업" sheetId="8" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="메뉴수">'제 1작업'!$F$5:$F$12</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>업체명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +293,74 @@
   </si>
   <si>
     <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>everage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +372,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#&quot;개&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,8 +403,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +443,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -598,6 +777,168 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +1030,9 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,6 +1059,102 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1132,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1203,7 +1643,10 @@
       <c r="H5" s="18">
         <v>295</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="14">
+        <f>CHOOSE(MID(B5,3,1),2000,1000,0)</f>
+        <v>2000</v>
+      </c>
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1228,7 +1671,10 @@
       <c r="H6" s="4">
         <v>422</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="27">
+        <f t="shared" ref="I6:I12" si="0">CHOOSE(MID(B6,3,1),2000,1000,0)</f>
+        <v>1000</v>
+      </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1253,7 +1699,10 @@
       <c r="H7" s="4">
         <v>198</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1278,7 +1727,10 @@
       <c r="H8" s="4">
         <v>343</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1303,7 +1755,10 @@
       <c r="H9" s="4">
         <v>385</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1328,7 +1783,10 @@
       <c r="H10" s="4">
         <v>225</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1353,7 +1811,10 @@
       <c r="H11" s="4">
         <v>398</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="27">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1378,34 +1839,37 @@
       <c r="H12" s="5">
         <v>415</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="27">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="27" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="35"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="23" t="s">
         <v>33</v>
       </c>
@@ -1443,7 +1907,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1926,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1720,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1794,4 +2258,150 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="61"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37">
+        <v>80</v>
+      </c>
+      <c r="B2" s="38">
+        <v>90</v>
+      </c>
+      <c r="C2" s="39">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="40">
+        <f>SUM(A2:C2)</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="44">
+        <f>AVERAGE(A2:C2)</f>
+        <v>88.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="45">
+        <f>COUNT(A2:C2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="46">
+        <f>COUNTA(A1:C2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="47">
+        <f>MAX(A2:C2)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="48">
+        <f>MIN(A2:C2)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="65" t="str">
+        <f>LEFT(A1,2)</f>
+        <v>국어</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="66" t="str">
+        <f>RIGHT(A1,3)</f>
+        <v>어점수</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="67" t="str">
+        <f>MID(C1,2,3)</f>
+        <v>학 점</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="68" t="str">
+        <f>CHOOSE(4,"가","나","다","라","마")</f>
+        <v>라</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/20918-홍영준-202304-A.xlsx
+++ b/20918-홍영준-202304-A.xlsx
@@ -528,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -612,21 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -948,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,7 +949,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,186 +967,191 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1258,7 +1248,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>671763</xdr:colOff>
+      <xdr:colOff>671764</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>234496</xdr:rowOff>
     </xdr:to>
@@ -1573,7 +1563,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1571,7 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
@@ -1593,61 +1583,64 @@
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>44630</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>25</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>15000</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>295</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <f>CHOOSE(MID(B5,3,1),2000,1000,0)</f>
         <v>2000</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="14" t="str">
+        <f>IF(AND(F5&gt;=15,H5&gt;=300),"A","B")</f>
+        <v>B</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -1662,7 +1655,7 @@
       <c r="E6" s="8">
         <v>44915</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>20</v>
       </c>
       <c r="G6" s="4">
@@ -1671,11 +1664,14 @@
       <c r="H6" s="4">
         <v>422</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <f t="shared" ref="I6:I12" si="0">CHOOSE(MID(B6,3,1),2000,1000,0)</f>
         <v>1000</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="14" t="str">
+        <f>IF(AND(F6&gt;=15,H6&gt;=300),"A","B")</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -1690,7 +1686,7 @@
       <c r="E7" s="8">
         <v>44844</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>15</v>
       </c>
       <c r="G7" s="4">
@@ -1699,11 +1695,14 @@
       <c r="H7" s="4">
         <v>198</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="14" t="str">
+        <f t="shared" ref="J6:J12" si="1">IF(AND(F7&gt;=15,H7&gt;=300),"A","B")</f>
+        <v>B</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -1718,7 +1717,7 @@
       <c r="E8" s="8">
         <v>44701</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>12</v>
       </c>
       <c r="G8" s="4">
@@ -1727,11 +1726,14 @@
       <c r="H8" s="4">
         <v>343</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -1746,7 +1748,7 @@
       <c r="E9" s="8">
         <v>44783</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>17</v>
       </c>
       <c r="G9" s="4">
@@ -1755,11 +1757,14 @@
       <c r="H9" s="4">
         <v>385</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -1774,7 +1779,7 @@
       <c r="E10" s="8">
         <v>44885</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>22</v>
       </c>
       <c r="G10" s="4">
@@ -1783,11 +1788,14 @@
       <c r="H10" s="4">
         <v>225</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
@@ -1802,7 +1810,7 @@
       <c r="E11" s="8">
         <v>44602</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>9</v>
       </c>
       <c r="G11" s="4">
@@ -1811,26 +1819,29 @@
       <c r="H11" s="4">
         <v>398</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>44581</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>16</v>
       </c>
       <c r="G12" s="5">
@@ -1839,47 +1850,62 @@
       <c r="H12" s="5">
         <v>415</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="26">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J12" s="13"/>
+      <c r="J12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="28" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="13" t="str">
+        <f>COUNTIF(D5:D12,"한식")&amp;"개"</f>
+        <v>3개</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="15"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="14">
+        <f>MIN(메뉴수)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="23" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="10">
+        <f>DSUM(B4:H12,H4,D4:D5)</f>
+        <v>1053</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="12">
+        <f>VLOOKUP(H14,B5:H12,7,FALSE)</f>
+        <v>295</v>
+      </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1891,6 +1917,11 @@
     <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H5&lt;300</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>
@@ -2185,7 +2216,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2265,136 +2296,136 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37">
+      <c r="A2" s="27">
         <v>80</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="28">
         <v>90</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="29">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="30">
         <f>SUM(A2:C2)</f>
         <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="34">
         <f>AVERAGE(A2:C2)</f>
         <v>88.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="35">
         <f>COUNT(A2:C2)</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="36">
         <f>COUNTA(A1:C2)</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="37">
         <f>MAX(A2:C2)</f>
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="38">
         <f>MIN(A2:C2)</f>
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="65" t="str">
+      <c r="C11" s="55" t="str">
         <f>LEFT(A1,2)</f>
         <v>국어</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="66" t="str">
+      <c r="C12" s="56" t="str">
         <f>RIGHT(A1,3)</f>
         <v>어점수</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="67" t="str">
+      <c r="C13" s="57" t="str">
         <f>MID(C1,2,3)</f>
         <v>학 점</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="68" t="str">
+      <c r="C14" s="58" t="str">
         <f>CHOOSE(4,"가","나","다","라","마")</f>
         <v>라</v>
       </c>

--- a/20918-홍영준-202304-A.xlsx
+++ b/20918-홍영준-202304-A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="제 1작업" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="메뉴수">'제 1작업'!$F$5:$F$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>업체명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +364,18 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전월배달건수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2021-09-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -924,6 +939,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -933,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,6 +1183,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,13 +1230,274 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="#&quot;개&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1295,6 +1649,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="B18:E22"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="코드번호" dataDxfId="4"/>
+    <tableColumn id="2" name="업체명" dataDxfId="3"/>
+    <tableColumn id="3" name="메뉴수" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="전월배달건수" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1562,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1700,7 +2067,7 @@
         <v>1000</v>
       </c>
       <c r="J7" s="14" t="str">
-        <f t="shared" ref="J6:J12" si="1">IF(AND(F7&gt;=15,H7&gt;=300),"A","B")</f>
+        <f t="shared" ref="J7:J12" si="1">IF(AND(F7&gt;=15,H7&gt;=300),"A","B")</f>
         <v>B</v>
       </c>
     </row>
@@ -1861,21 +2228,21 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="13" t="str">
         <f>COUNTIF(D5:D12,"한식")&amp;"개"</f>
         <v>3개</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="59" t="s">
+      <c r="F13" s="73"/>
+      <c r="G13" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
       <c r="J13" s="14">
         <f>MIN(메뉴수)</f>
         <v>9</v>
@@ -1883,16 +2250,16 @@
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="10">
         <f>DSUM(B4:H12,H4,D4:D5)</f>
         <v>1053</v>
       </c>
-      <c r="F14" s="67"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="22" t="s">
         <v>33</v>
       </c>
@@ -1918,11 +2285,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$H5&lt;300</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>
     </dataValidation>
@@ -1935,20 +2302,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16">
+        <v>44630</v>
+      </c>
+      <c r="F3" s="23">
+        <v>25</v>
+      </c>
+      <c r="G3" s="17">
+        <v>15000</v>
+      </c>
+      <c r="H3" s="17">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44185</v>
+      </c>
+      <c r="F4" s="24">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44479</v>
+      </c>
+      <c r="F5" s="24">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44701</v>
+      </c>
+      <c r="F6" s="24">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44418</v>
+      </c>
+      <c r="F7" s="24">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44520</v>
+      </c>
+      <c r="F8" s="24">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44602</v>
+      </c>
+      <c r="F9" s="24">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9900</v>
+      </c>
+      <c r="H9" s="4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11">
+        <v>44581</v>
+      </c>
+      <c r="F10" s="25">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5">
+        <v>13000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="76">
+        <v>20</v>
+      </c>
+      <c r="E19" s="78">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="76">
+        <v>15</v>
+      </c>
+      <c r="E20" s="78">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="76">
+        <v>17</v>
+      </c>
+      <c r="E21" s="78">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="84">
+        <v>9</v>
+      </c>
+      <c r="E22" s="85">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$H3&lt;300</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/20918-홍영준-202304-A.xlsx
+++ b/20918-홍영준-202304-A.xlsx
@@ -2,22 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="제 1작업" sheetId="5" r:id="rId1"/>
     <sheet name="제2작업" sheetId="7" r:id="rId2"/>
     <sheet name="제3작업" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="10" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
+    <sheet name="제4작업" sheetId="15" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
@@ -1204,6 +1205,39 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,39 +1264,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1270,40 +1271,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1470,13 +1437,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1489,6 +1449,47 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1518,6 +1519,1165 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>한식 및 중식 등록업체 현황분석</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>최소주문금액(단위:원)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DC21-4783-A6A0-8795983FD114}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('제 1작업'!$C$5,'제 1작업'!$C$6,'제 1작업'!$C$8,'제 1작업'!$C$9,'제 1작업'!$C$10,'제 1작업'!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한옥마을</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>초이반점</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>오늘된장</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>사천성</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>북경</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>장수본가</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('제 1작업'!$G$5,'제 1작업'!$G$6,'제 1작업'!$G$8,'제 1작업'!$G$9,'제 1작업'!$G$10,'제 1작업'!$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC21-4783-A6A0-8795983FD114}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1141520863"/>
+        <c:axId val="1141524191"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'제 1작업'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>메뉴수</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>('제 1작업'!$C$5,'제 1작업'!$C$6,'제 1작업'!$C$8,'제 1작업'!$C$9,'제 1작업'!$C$10,'제 1작업'!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한옥마을</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>초이반점</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>오늘된장</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>사천성</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>북경</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>장수본가</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('제 1작업'!$F$5,'제 1작업'!$F$6,'제 1작업'!$F$8,'제 1작업'!$F$9,'제 1작업'!$F$10,'제 1작업'!$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#"개"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC21-4783-A6A0-8795983FD114}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1145280335"/>
+        <c:axId val="1145279503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1141520863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141524191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1141524191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141520863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1145279503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#&quot;개&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145280335"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1145280335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1145279503"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1540,8 +2700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="148828" y="17860"/>
-          <a:ext cx="5030391" cy="476250"/>
+          <a:off x="149263" y="17860"/>
+          <a:ext cx="4751466" cy="474798"/>
         </a:xfrm>
         <a:prstGeom prst="plus">
           <a:avLst/>
@@ -1651,14 +2811,138 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43037</cdr:x>
+      <cdr:y>0.13094</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6057</cdr:x>
+      <cdr:y>0.22721</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4005185" y="796352"/>
+          <a:ext cx="1631741" cy="585553"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -93333"/>
+            <a:gd name="adj2" fmla="val 44318"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>전월배달건수</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>쵀대</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="B18:E22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="코드번호" dataDxfId="4"/>
-    <tableColumn id="2" name="업체명" dataDxfId="3"/>
-    <tableColumn id="3" name="메뉴수" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="4" name="전월배달건수" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" name="코드번호" dataDxfId="3"/>
+    <tableColumn id="2" name="업체명" dataDxfId="2"/>
+    <tableColumn id="3" name="메뉴수" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="전월배달건수" dataDxfId="0" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1927,10 +3211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2228,21 +3512,21 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="13" t="str">
         <f>COUNTIF(D5:D12,"한식")&amp;"개"</f>
         <v>3개</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="66" t="s">
+      <c r="F13" s="84"/>
+      <c r="G13" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
       <c r="J13" s="14">
         <f>MIN(메뉴수)</f>
         <v>9</v>
@@ -2250,16 +3534,16 @@
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="10">
         <f>DSUM(B4:H12,H4,D4:D5)</f>
         <v>1053</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="22" t="s">
         <v>33</v>
       </c>
@@ -2275,7 +3559,6 @@
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G13:I13"/>
@@ -2304,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2549,72 +3832,72 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="72" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="67">
         <v>20</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="69">
         <v>422</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="67">
         <v>15</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="69">
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="67">
         <v>17</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="69">
         <v>385</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="75">
         <v>9</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="76">
         <v>398</v>
       </c>
     </row>
@@ -2661,7 +3944,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
